--- a/AE Sakib/Satkhira Div-II/Regulator/Bamon Danga Sluice/Bamondanga Sluice.xlsx
+++ b/AE Sakib/Satkhira Div-II/Regulator/Bamon Danga Sluice/Bamondanga Sluice.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Basic_Parameter" sheetId="3" r:id="rId3"/>
     <sheet name="Basin Input" sheetId="4" r:id="rId4"/>
+    <sheet name="structure_name" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>parameters</t>
   </si>
@@ -121,6 +122,54 @@
   </si>
   <si>
     <t>Abutment_width</t>
+  </si>
+  <si>
+    <t>Bamondnaga_sluice</t>
+  </si>
+  <si>
+    <t>structure_name</t>
+  </si>
+  <si>
+    <t>Barrel Length</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>cutoff_depth_min</t>
+  </si>
+  <si>
+    <t>cutoff_depth_max</t>
+  </si>
+  <si>
+    <t>Laycey's Silt Factor</t>
+  </si>
+  <si>
+    <t>maximum head difference</t>
+  </si>
+  <si>
+    <t>Allowable Exit Gradient</t>
+  </si>
+  <si>
+    <t>minimum_floor_thickness</t>
+  </si>
+  <si>
+    <t>Top_slab_thickness</t>
+  </si>
+  <si>
+    <t>unit weight of fill soil</t>
+  </si>
+  <si>
+    <t>pcf</t>
+  </si>
+  <si>
+    <t>friction Angle of fill soil</t>
+  </si>
+  <si>
+    <t>surchrge height</t>
   </si>
 </sst>
 </file>
@@ -467,18 +516,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -500,7 +550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -511,7 +561,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -521,8 +571,9 @@
       <c r="C4" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -532,8 +583,9 @@
       <c r="C5" s="1">
         <v>-6.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -543,8 +595,9 @@
       <c r="C6" s="1">
         <v>-5.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -554,8 +607,9 @@
       <c r="C7" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -565,8 +619,9 @@
       <c r="C8" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -575,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -584,7 +639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -595,7 +650,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -606,16 +661,16 @@
         <v>27.702000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -626,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -637,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -667,7 +722,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -678,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -689,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -700,7 +755,123 @@
         <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <f>6*3.28</f>
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +881,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,7 +892,7 @@
     <col min="3" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -735,7 +906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>375</v>
       </c>
@@ -749,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>375</v>
       </c>
@@ -763,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>375</v>
       </c>
@@ -777,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>375</v>
       </c>
@@ -791,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>375</v>
       </c>
@@ -805,7 +976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>375</v>
       </c>
@@ -819,7 +990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>375</v>
       </c>
@@ -833,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>375</v>
       </c>
@@ -847,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>375</v>
       </c>
@@ -861,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>375</v>
       </c>
@@ -874,12 +1045,8 @@
       <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="G11">
-        <f>3.28*3.28</f>
-        <v>10.758399999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>375</v>
       </c>
@@ -893,7 +1060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>375</v>
       </c>
@@ -907,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>375</v>
       </c>
@@ -919,6 +1086,34 @@
       </c>
       <c r="D14" s="1">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
